--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.146|x9:0.000|x10:0.539|x11:0.000|x12:0.000|x13:0.000|x14:0.149|x15:0.000|x16:0.166|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.263|x15:0.737|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:1.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.365|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.301|x14:0.000|x15:0.334|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.815|x15:0.185|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.309|x4:0.000|x5:0.000|x6:0.148|x7:0.141|x8:0.151|x9:0.252|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.725|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.275|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.189|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.644|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.168|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.284|x4:0.000|x5:0.000|x6:0.000|x7:0.209|x8:0.000|x9:0.000|x10:0.000|x11:0.154|x12:0.000|x13:0.164|x14:0.000|x15:0.000|x16:0.189|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.139|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.861|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.877|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.123|x17:0.000</t>
+          <t>x1:0.811|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.189|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:1.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.205|x2:0.411|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.384|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.387|x3:0.000|x4:0.000|x5:0.000|x6:0.613|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.852|x12:0.000|x13:0.000|x14:0.000|x15:0.148|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.159|x2:0.000|x3:0.342|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.499|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.773|x9:0.000|x10:0.000|x11:0.227|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.173|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.827|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.554|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.446|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:1.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.610|x10:0.000|x11:0.000|x12:0.390|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:1.159|x2:1.000|x3:1.220|x4:1.173|x5:1.000|x6:0.725|x7:1.000|x8:0.645|x9:1.000|x10:0.539|x11:0.852|x12:1.000|x13:0.827|x14:1.240|x15:1.333|x16:1.288|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.786|x4:0.000|x5:0.000|x6:0.000|x7:0.214|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>x1:1.155|x2:1.163|x3:1.379|x4:0.743|x5:1.000|x6:0.761|x7:0.564|x8:1.923|x9:0.861|x10:0.833|x11:1.242|x12:0.390|x13:1.465|x14:1.263|x15:1.071|x16:1.186|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.263|x15:0.737|x16:0.000|x17:0.000</t>
+          <t>x1:0.649|x2:0.351|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.365|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.301|x14:0.000|x15:0.334|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.817|x8:0.000|x9:0.183|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.309|x4:0.000|x5:0.000|x6:0.148|x7:0.141|x8:0.151|x9:0.252|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.505|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.246|x12:0.000|x13:0.249|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.189|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.644|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.168|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.150|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.141|x9:0.709|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.284|x4:0.000|x5:0.000|x6:0.000|x7:0.209|x8:0.000|x9:0.000|x10:0.000|x11:0.154|x12:0.000|x13:0.164|x14:0.000|x15:0.000|x16:0.189|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.139|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.861|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.278|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.722|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.811|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.189|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.596|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.404|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.205|x2:0.411|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.384|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.171|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.829|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.387|x3:0.000|x4:0.000|x5:0.000|x6:0.613|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.226|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.774|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.238|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.762|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.291|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.461|x9:0.000|x10:0.248|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.220|x4:0.000|x5:0.780|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.206|x4:0.000|x5:0.000|x6:0.794|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.773|x9:0.000|x10:0.000|x11:0.227|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.131|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.376|x12:0.337|x13:0.000|x14:0.000|x15:0.157|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.554|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.446|x17:0.000</t>
+          <t>x1:0.000|x2:0.181|x3:0.321|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.498|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.610|x10:0.000|x11:0.000|x12:0.390|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.786|x4:0.000|x5:0.000|x6:0.000|x7:0.214|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.384|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.616|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x1:1.155|x2:1.163|x3:1.379|x4:0.743|x5:1.000|x6:0.761|x7:0.564|x8:1.923|x9:0.861|x10:0.833|x11:1.242|x12:0.390|x13:1.465|x14:1.263|x15:1.071|x16:1.186|x17:0.000</t>
+          <t>x1:0.886|x2:0.810|x3:3.221|x4:0.596|x5:1.165|x6:0.794|x7:0.817|x8:1.365|x9:0.891|x10:0.651|x11:0.622|x12:0.337|x13:1.078|x14:0.722|x15:1.655|x16:1.389|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.649|x2:0.351|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.299|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.339|x13:0.000|x14:0.000|x15:0.000|x16:0.362|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.817|x8:0.000|x9:0.183|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.505|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.246|x12:0.000|x13:0.249|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.150|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.141|x9:0.709|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.807|x9:0.000|x10:0.193|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.278|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.722|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.596|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.404|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.127|x4:0.000|x5:0.000|x6:0.873|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.171|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.829|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.233|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.767|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.226|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.774|x17:0.000</t>
+          <t>x1:0.000|x2:0.270|x3:0.000|x4:0.730|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.238|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.762|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.818|x2:0.000|x3:0.182|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.291|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.461|x9:0.000|x10:0.248|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.220|x4:0.000|x5:0.780|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.770|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.230|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.206|x4:0.000|x5:0.000|x6:0.794|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.207|x8:0.000|x9:0.793|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.131|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.376|x12:0.337|x13:0.000|x14:0.000|x15:0.157|x16:0.000|x17:0.000</t>
+          <t>x1:0.356|x2:0.000|x3:0.000|x4:0.000|x5:0.165|x6:0.250|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.228|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.181|x3:0.321|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.498|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.370|x13:0.000|x14:0.000|x15:0.000|x16:0.630|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.177|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.823|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.384|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.616|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.378|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.622|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x1:0.886|x2:0.810|x3:3.221|x4:0.596|x5:1.165|x6:0.794|x7:0.817|x8:1.365|x9:0.891|x10:0.651|x11:0.622|x12:0.337|x13:1.078|x14:0.722|x15:1.655|x16:1.389|x17:0.000</t>
+          <t>x1:1.174|x2:1.447|x3:1.920|x4:1.029|x5:0.935|x6:1.124|x7:1.207|x8:0.807|x9:0.793|x10:1.016|x11:0.767|x12:0.709|x13:0.850|x14:1.000|x15:1.000|x16:1.222|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.299|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.339|x13:0.000|x14:0.000|x15:0.000|x16:0.362|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.787|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.213|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.660|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.340|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.455|x5:0.545|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.807|x9:0.000|x10:0.193|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:1.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.164|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.294|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.359|x13:0.000|x14:0.183|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.127|x4:0.000|x5:0.000|x6:0.873|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:1.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.233|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.767|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:1.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.270|x3:0.000|x4:0.730|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.538|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.462|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.818|x2:0.000|x3:0.182|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.517|x12:0.483|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:1.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.312|x10:0.365|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.324|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.770|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.230|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.207|x8:0.000|x9:0.793|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:1.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x1:0.356|x2:0.000|x3:0.000|x4:0.000|x5:0.165|x6:0.250|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.228|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:1.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.370|x13:0.000|x14:0.000|x15:0.000|x16:0.630|x17:0.000</t>
+          <t>x1:0.719|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.281|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.177|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.823|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:1.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.378|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.622|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.481|x11:0.000|x12:0.000|x13:0.519|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x1:1.174|x2:1.447|x3:1.920|x4:1.029|x5:0.935|x6:1.124|x7:1.207|x8:0.807|x9:0.793|x10:1.016|x11:0.767|x12:0.709|x13:0.850|x14:1.000|x15:1.000|x16:1.222|x17:0.000</t>
+          <t>x1:0.719|x2:1.362|x3:1.000|x4:0.455|x5:0.545|x6:1.000|x7:1.081|x8:1.000|x9:1.312|x10:1.467|x11:0.517|x12:0.842|x13:1.732|x14:1.645|x15:1.000|x16:1.324|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.787|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.213|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.769|x12:0.000|x13:0.231|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.660|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.340|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.180|x9:0.621|x10:0.199|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.186|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.628|x13:0.000|x14:0.000|x15:0.000|x16:0.186|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.455|x5:0.545|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:1.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.164|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.294|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.359|x13:0.000|x14:0.183|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.495|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.505|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.538|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.462|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.509|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.295|x9:0.000|x10:0.196|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.517|x12:0.483|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.339|x12:0.661|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.312|x10:0.365|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.324|x17:0.000</t>
+          <t>x1:0.393|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.607|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:1.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.439|x8:0.000|x9:0.220|x10:0.000|x11:0.000|x12:0.000|x13:0.341|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.719|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.281|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.250|x2:0.000|x3:0.000|x4:0.750|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.481|x11:0.000|x12:0.000|x13:0.519|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.273|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.727|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x1:0.719|x2:1.362|x3:1.000|x4:0.455|x5:0.545|x6:1.000|x7:1.081|x8:1.000|x9:1.312|x10:1.467|x11:0.517|x12:0.842|x13:1.732|x14:1.645|x15:1.000|x16:1.324|x17:0.000</t>
+          <t>x1:1.152|x2:0.681|x3:1.000|x4:0.750|x5:1.000|x6:1.000|x7:1.216|x8:1.475|x9:0.842|x10:1.001|x11:1.107|x12:1.289|x13:1.300|x14:1.000|x15:1.000|x16:1.186|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.186|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.628|x13:0.000|x14:0.000|x15:0.000|x16:0.186|x17:0.000</t>
+          <t>x1:0.000|x2:0.186|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.628|x13:0.000|x14:0.000|x15:0.000|x16:0.187|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.509|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.295|x9:0.000|x10:0.196|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.509|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.296|x9:0.000|x10:0.196|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.439|x8:0.000|x9:0.220|x10:0.000|x11:0.000|x12:0.000|x13:0.341|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.439|x8:0.000|x9:0.221|x10:0.000|x11:0.000|x12:0.000|x13:0.341|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x1:1.152|x2:0.681|x3:1.000|x4:0.750|x5:1.000|x6:1.000|x7:1.216|x8:1.475|x9:0.842|x10:1.001|x11:1.107|x12:1.289|x13:1.300|x14:1.000|x15:1.000|x16:1.186|x17:0.000</t>
+          <t>x1:1.151|x2:0.681|x3:1.000|x4:0.750|x5:1.000|x6:1.000|x7:1.216|x8:1.475|x9:0.842|x10:1.002|x11:1.107|x12:1.289|x13:1.300|x14:1.000|x15:1.000|x16:1.187|x17:0.000</t>
         </is>
       </c>
     </row>

--- a/Project_python/out/LDA/topics_map.xlsx
+++ b/Project_python/out/LDA/topics_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.769|x12:0.000|x13:0.231|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:1.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.180|x9:0.621|x10:0.199|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.351|x10:0.000|x11:0.000|x12:0.211|x13:0.438|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.186|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.628|x13:0.000|x14:0.000|x15:0.000|x16:0.187|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.161|x9:0.000|x10:0.148|x11:0.000|x12:0.350|x13:0.154|x14:0.000|x15:0.000|x16:0.187|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:1.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.144|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.661|x9:0.000|x10:0.195|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.495|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.505|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.346|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.654|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x1:0.509|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.296|x9:0.000|x10:0.196|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.335|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.258|x9:0.000|x10:0.217|x11:0.000|x12:0.000|x13:0.000|x14:0.190|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.339|x12:0.661|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.524|x12:0.476|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x1:0.393|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.607|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:nan|x2:nan|x3:nan|x4:nan|x5:nan|x6:nan|x7:nan|x8:nan|x9:nan|x10:nan|x11:nan|x12:nan|x13:nan|x14:nan|x15:nan|x16:nan|x17:nan</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.439|x8:0.000|x9:0.221|x10:0.000|x11:0.000|x12:0.000|x13:0.341|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.689|x10:0.311|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x1:0.250|x2:0.000|x3:0.000|x4:0.750|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
+          <t>x1:0.340|x2:0.146|x3:0.000|x4:0.514|x5:0.000|x6:0.000|x7:0.000|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.000|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x1:0.000|x2:0.000|x3:0.000|x4:0.000|x5:0.000|x6:0.000|x7:0.273|x8:0.000|x9:0.000|x10:0.000|x11:0.000|x12:0.000|x13:0.727|x14:0.000|x15:0.000|x16:0.000|x17:0.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x1:1.151|x2:0.681|x3:1.000|x4:0.750|x5:1.000|x6:1.000|x7:1.216|x8:1.475|x9:0.842|x10:1.002|x11:1.107|x12:1.289|x13:1.300|x14:1.000|x15:1.000|x16:1.187|x17:0.000</t>
+          <t>x1:nan|x2:nan|x3:nan|x4:nan|x5:nan|x6:nan|x7:nan|x8:nan|x9:nan|x10:nan|x11:nan|x12:nan|x13:nan|x14:nan|x15:nan|x16:nan|x17:nan</t>
         </is>
       </c>
     </row>
